--- a/trainingData_semanticSegmentation/segentadasSI.xlsx
+++ b/trainingData_semanticSegmentation/segentadasSI.xlsx
@@ -1245,15 +1245,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DD2"/>
+  <dimension ref="A1:DC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="CO1" workbookViewId="0">
+      <selection activeCell="BU1" sqref="BU1:BU1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1471,115 +1471,112 @@
         <v>126</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="DD1" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="2" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1663,6 +1660,9 @@
       </c>
       <c r="AB2" s="1" t="s">
         <v>267</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
